--- a/biology/Histoire de la zoologie et de la botanique/Miguel_Telles_Antunes/Miguel_Telles_Antunes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Miguel_Telles_Antunes/Miguel_Telles_Antunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miguel Telles Antunes GOIH, né le 11 janvier 1937 à Lisbonne, est un universitaire portugais, spécialisé en paléontologie, archéozoologie et la géologie. Antunes est membre de plusieurs institutions, dont l'Académie des sciences de Lisbonne, la nouvelle université de Lisbonne et le Museu da Lourinhã (en).
 Antunes est l'auteur du nom binominal de nombreuses espèces, des dinosaures aux insectes, en raison de sa prééminence dans le domaine de la paléontologie et de l'archéologie, dont le plus remarquable est Lourinhanosaurus antunesi, un dinosaure Theropoda de la fin du Jurassique.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miguel Carlos Ferreira Telles Antunes est né le 11 janvier 1937 à Lisbonne. 
-Antunes est membre de l'Académie des sciences de Lisbonne, la société scientifique la plus éminente du Portugal, Antunes est le directeur du Musée Maynense de l'Académie[1].
+Antunes est membre de l'Académie des sciences de Lisbonne, la société scientifique la plus éminente du Portugal, Antunes est le directeur du Musée Maynense de l'Académie.
 Il est professeur à la nouvelle université de Lisbonne, où il était auparavant président du département des sciences et de la technologie.
 Antunes est conservateur et membre du conseil d'administration du Museu da Lourinhã (en).
-Le 30 janvier 1965, il épouse Maria Salomé Soares Pais Telles Antunes, secrétaire générale de l'Académie des sciences de Lisbonne et secrétaire de l'Academia das Ciências de Lisboa, la plus haute autorité linguistique du Portugal. Le couple a deux enfants: Helena Luísa Soares Pais Pais Telles Antunes, M. D., chirurgienne cardiothoracique et chercheuse, et Ana Isabel Soares Pais Telles Antunes, éminente pianiste de concert associée à l'Université de New York et à l'Académie de musique Amadores de Lisbonne[2].
+Le 30 janvier 1965, il épouse Maria Salomé Soares Pais Telles Antunes, secrétaire générale de l'Académie des sciences de Lisbonne et secrétaire de l'Academia das Ciências de Lisboa, la plus haute autorité linguistique du Portugal. Le couple a deux enfants: Helena Luísa Soares Pais Pais Telles Antunes, M. D., chirurgienne cardiothoracique et chercheuse, et Ana Isabel Soares Pais Telles Antunes, éminente pianiste de concert associée à l'Université de New York et à l'Académie de musique Amadores de Lisbonne.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Espèces nommées d'après lui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De nombreuses espèces, toutes disparues, portent le nom d'Antunes, dont :
 Lourinhanosaurus antunesi, dinosaure Theropoda disparu du Jurassique
@@ -585,7 +601,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste non exhaustive :
 ANTUNES, M.T. (1976) Dinossáurios eocretácicos de Lagosteiros, Ciências da Terra 1:1-35.
